--- a/documents/ImportCustomers_Template.xlsx
+++ b/documents/ImportCustomers_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattDrouillard\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E4D647-D67A-4686-AECC-E99DC0984CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A7449B-456F-4C54-8C5C-1685E1A1CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="11385" xr2:uid="{F9AD0579-FAE8-41D4-B5A8-9D4C17882547}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F9AD0579-FAE8-41D4-B5A8-9D4C17882547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -50,14 +50,26 @@
     <t>Salutation</t>
   </si>
   <si>
-    <t>Contact Phone #</t>
+    <t>Phone #</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>PostalZip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +80,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,7 +132,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -428,23 +448,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3145A6FC-8DA5-4D96-A8BD-DBF989FB1973}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +486,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -472,18 +507,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,6 +745,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BF762F-E21C-4031-AD75-75ABE2A59010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2CFBC28-B0A4-4085-BA23-5DC4DBB85BC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="4dafc3e3-2f61-435f-93ee-93b7c576c297"/>
@@ -722,14 +765,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="7d5a4ff9-8a44-4abd-866f-0322fb4723e3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BF762F-E21C-4031-AD75-75ABE2A59010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
